--- a/html.xlsx
+++ b/html.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010" tabRatio="928" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14355" windowHeight="8010" tabRatio="928" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="tags html &lt;&gt;" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Head" sheetId="4" r:id="rId4"/>
     <sheet name="Tags em desuso" sheetId="5" r:id="rId5"/>
     <sheet name="Media Types" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="265">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2295,13 +2296,185 @@
   </si>
   <si>
     <t>&amp;thinsp;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Abertura e fechamento de tabela</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Table Row</t>
+  </si>
+  <si>
+    <t>Linha de tabela</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Table Data</t>
+  </si>
+  <si>
+    <t>Dado de tabela</t>
+  </si>
+  <si>
+    <t>separate</t>
+  </si>
+  <si>
+    <t>Padrão</t>
+  </si>
+  <si>
+    <t>collapse;</t>
+  </si>
+  <si>
+    <t>Juntar as bordas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border-collapse:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2473,6 +2646,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2769,7 +2960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2873,6 +3064,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2885,9 +3102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2900,35 +3114,22 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3584,10 +3785,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3595,64 +3796,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -3661,10 +3862,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="47" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3672,21 +3873,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="48"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="48"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="49" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -3694,24 +3895,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -3720,7 +3921,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="44" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -3728,24 +3929,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -3772,7 +3973,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="52" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -3783,7 +3984,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="44"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -3792,7 +3993,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="44"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -3801,7 +4002,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="44"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -3810,7 +4011,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="44"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -3819,7 +4020,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="44"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -3828,22 +4029,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3856,7 +4057,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4055,34 +4256,34 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="38" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="38" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="38" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="38" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4449,4 +4650,81 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/html.xlsx
+++ b/html.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="260">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2437,44 +2437,13 @@
   </si>
   <si>
     <t>Dado de tabela</t>
-  </si>
-  <si>
-    <t>separate</t>
-  </si>
-  <si>
-    <t>Padrão</t>
-  </si>
-  <si>
-    <t>collapse;</t>
-  </si>
-  <si>
-    <t>Juntar as bordas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>border-collapse:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2658,12 +2627,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2960,7 +2923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3066,6 +3029,52 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3075,60 +3084,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3785,10 +3742,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="55" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3796,64 +3753,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -3862,10 +3819,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="41" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3873,21 +3830,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="48"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="42"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -3895,24 +3852,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -3921,7 +3878,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="50" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -3929,24 +3886,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -3973,7 +3930,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="47" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -3984,7 +3941,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -3993,7 +3950,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -4002,7 +3959,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -4011,7 +3968,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -4020,7 +3977,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -4029,22 +3986,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="54"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A52:A54"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4657,7 +4614,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,62 +4625,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="40" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="40" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>263</v>
-      </c>
-    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/html.xlsx
+++ b/html.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2437,13 +2437,303 @@
   </si>
   <si>
     <t>Dado de tabela</t>
+  </si>
+  <si>
+    <t>Tabelas Simples</t>
+  </si>
+  <si>
+    <t>Tabelas Grandes</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>thead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>thead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>Tabela</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tbody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tbody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tfoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tfoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>pé</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Table header</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>caption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>caption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Título ou legenda da tabela</t>
+  </si>
+  <si>
+    <t>Define título da coluna</t>
+  </si>
+  <si>
+    <t>Define título da linha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="row"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="col"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,6 +2917,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2642,7 +2950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2919,11 +3227,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3029,10 +3473,46 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3045,47 +3525,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3742,10 +4224,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="48" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3753,64 +4235,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -3819,10 +4301,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="53" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3830,21 +4312,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="42"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="54"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="54"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="55" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -3852,24 +4334,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="44"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -3878,7 +4360,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="43" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -3886,24 +4368,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -3930,7 +4412,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="40" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -3941,7 +4423,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -3950,7 +4432,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="48"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -3959,7 +4441,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -3968,7 +4450,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="48"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -3977,7 +4459,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -3986,22 +4468,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4611,7 +5093,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -4620,45 +5102,147 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="67" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="68" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="69"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A1:A6"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/html.xlsx
+++ b/html.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="284">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2727,6 +2727,21 @@
       </rPr>
       <t>="col"</t>
     </r>
+  </si>
+  <si>
+    <t>Mesclagem de Células</t>
+  </si>
+  <si>
+    <t>colspan="2"</t>
+  </si>
+  <si>
+    <t>rowspan="2"</t>
+  </si>
+  <si>
+    <t>Ocupa a quantidade de celulas da coluna indicada entre aspas</t>
+  </si>
+  <si>
+    <t>Ocupa a quantidade de celulas da linha indicada entre aspas</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3474,69 +3489,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3552,11 +3504,74 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3566,7 +3581,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4224,10 +4253,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="68" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4235,64 +4264,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -4301,10 +4330,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4312,21 +4341,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="55"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="55"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="56" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -4334,24 +4363,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -4360,7 +4389,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="63" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -4368,24 +4397,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -4412,7 +4441,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="60" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -4423,7 +4452,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="41"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -4432,7 +4461,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="41"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -4441,7 +4470,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="41"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -4450,7 +4479,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="41"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -4459,7 +4488,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="41"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -4468,22 +4497,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="42"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5093,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,140 +5137,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="46" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="47" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="50" t="s">
         <v>257</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="47" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="52" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="76"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="41" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="43" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="44" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="81"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79"/>
+      <c r="B13" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/html.xlsx
+++ b/html.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="290">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2742,6 +2742,58 @@
   </si>
   <si>
     <t>Ocupa a quantidade de celulas da linha indicada entre aspas</t>
+  </si>
+  <si>
+    <t>Escopo de Grupos - th</t>
+  </si>
+  <si>
+    <t>Utilizado apenas para th's</t>
+  </si>
+  <si>
+    <t>Título do conjunto de colunas</t>
+  </si>
+  <si>
+    <t>Título do conjunto de linhas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="rowgroup"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="colgroup"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2965,7 +3017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3302,36 +3354,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -3373,16 +3395,64 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3492,12 +3562,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3505,10 +3571,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3521,9 +3611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3536,33 +3623,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3572,13 +3638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3587,15 +3650,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4253,10 +4332,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="50" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4264,64 +4343,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="68"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="68"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="68"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="68"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="69"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -4330,10 +4409,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="58" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4341,21 +4420,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="55"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="59"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="60" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -4363,24 +4442,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -4389,7 +4468,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="55" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -4400,21 +4479,21 @@
       <c r="A52" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="64"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="67"/>
-      <c r="B54" s="65"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -4441,7 +4520,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="63" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -4452,7 +4531,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="61"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -4461,7 +4540,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="61"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -4470,7 +4549,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="61"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -4479,7 +4558,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="61"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -4488,7 +4567,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="61"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -4497,22 +4576,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="62"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5122,74 +5201,74 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>251</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="46" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="46" t="s">
         <v>257</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="48" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="49" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -5197,9 +5276,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="49" t="s">
         <v>277</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -5207,89 +5286,137 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="80" t="s">
         <v>262</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="80" t="s">
         <v>265</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="80" t="s">
         <v>267</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="82"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="70"/>
+      <c r="B17" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A1:A6"/>

--- a/html.xlsx
+++ b/html.xlsx
@@ -3575,6 +3575,42 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3590,15 +3626,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3614,20 +3641,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3649,33 +3676,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4332,10 +4332,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="62" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4343,64 +4343,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -4409,10 +4409,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="67" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4420,21 +4420,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="59"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="68"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="68"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="69" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -4442,24 +4442,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="61"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="61"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="57" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -4476,24 +4476,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
-      <c r="B54" s="57"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="54" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -4531,7 +4531,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="64"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="64"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="64"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="64"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -4576,22 +4576,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="65"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5216,7 +5216,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>260</v>
       </c>
       <c r="B1" s="45" t="s">
@@ -5230,7 +5230,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="46" t="s">
         <v>253</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="46" t="s">
         <v>257</v>
       </c>
@@ -5254,8 +5254,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="80" t="s">
         <v>270</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -5266,8 +5266,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="49" t="s">
         <v>278</v>
       </c>
@@ -5276,8 +5276,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="49" t="s">
         <v>277</v>
       </c>
@@ -5286,10 +5286,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="52" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -5300,8 +5300,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="52" t="s">
         <v>262</v>
       </c>
       <c r="C8" s="42" t="s">
@@ -5312,8 +5312,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="52" t="s">
         <v>265</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -5324,8 +5324,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="52" t="s">
         <v>267</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -5336,8 +5336,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="52" t="s">
         <v>273</v>
       </c>
       <c r="C11" s="42" t="s">
@@ -5346,32 +5346,32 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="75"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="53" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -5382,8 +5382,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="53" t="s">
         <v>277</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -5392,8 +5392,8 @@
       <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="53" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -5402,8 +5402,8 @@
       <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="53" t="s">
         <v>288</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -5413,14 +5413,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/html.xlsx
+++ b/html.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="299">
   <si>
     <t>Título de Nível 1</t>
   </si>
@@ -2794,13 +2794,431 @@
       </rPr>
       <t>="colgroup"</t>
     </r>
+  </si>
+  <si>
+    <t>Agrupar Colunas</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colgroup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colgroup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nome"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="sexo"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="idade"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="prof"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="grupo"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"3"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleciona mais de uma coluna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3002,6 +3420,48 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3017,7 +3477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -3448,11 +3908,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3587,6 +4056,24 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3620,26 +4107,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3656,26 +4146,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4332,10 +4817,10 @@
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="68" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4343,64 +4828,64 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="62"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="62"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="62"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="62"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="9" t="s">
         <v>181</v>
       </c>
@@ -4409,10 +4894,10 @@
       <c r="A44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="54" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4420,21 +4905,21 @@
       <c r="A45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="55"/>
     </row>
     <row r="46" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="68"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="55"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="56" t="s">
         <v>190</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -4442,24 +4927,24 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="70"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="70"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="18" t="s">
         <v>187</v>
       </c>
@@ -4468,7 +4953,7 @@
       <c r="A51" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="63" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -4476,24 +4961,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="25" t="s">
         <v>222</v>
       </c>
@@ -4520,7 +5005,7 @@
       <c r="A57" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="60" t="s">
         <v>230</v>
       </c>
       <c r="C57" s="29" t="s">
@@ -4531,7 +5016,7 @@
       <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B58" s="55"/>
+      <c r="B58" s="61"/>
       <c r="C58" s="31" t="s">
         <v>231</v>
       </c>
@@ -4540,7 +5025,7 @@
       <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="55"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="32" t="s">
         <v>232</v>
       </c>
@@ -4549,7 +5034,7 @@
       <c r="A60" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="55"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="32" t="s">
         <v>235</v>
       </c>
@@ -4558,7 +5043,7 @@
       <c r="A61" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="55"/>
+      <c r="B61" s="61"/>
       <c r="C61" s="32" t="s">
         <v>237</v>
       </c>
@@ -4567,7 +5052,7 @@
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="55"/>
+      <c r="B62" s="61"/>
       <c r="C62" s="32" t="s">
         <v>239</v>
       </c>
@@ -4576,22 +5061,22 @@
       <c r="A63" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="34" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B57:B63"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5201,22 +5686,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>260</v>
       </c>
       <c r="B1" s="45" t="s">
@@ -5230,7 +5715,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="46" t="s">
         <v>253</v>
       </c>
@@ -5242,7 +5727,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="46" t="s">
         <v>257</v>
       </c>
@@ -5254,8 +5739,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="72" t="s">
         <v>270</v>
       </c>
       <c r="C4" s="47" t="s">
@@ -5266,8 +5751,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="49" t="s">
         <v>278</v>
       </c>
@@ -5276,8 +5761,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="49" t="s">
         <v>277</v>
       </c>
@@ -5286,7 +5771,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="74" t="s">
         <v>261</v>
       </c>
       <c r="B7" s="52" t="s">
@@ -5300,7 +5785,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="52" t="s">
         <v>262</v>
       </c>
@@ -5312,7 +5797,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="52" t="s">
         <v>265</v>
       </c>
@@ -5324,7 +5809,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="52" t="s">
         <v>267</v>
       </c>
@@ -5336,7 +5821,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="52" t="s">
         <v>273</v>
       </c>
@@ -5346,29 +5831,29 @@
       <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="77" t="s">
         <v>279</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="82"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="74" t="s">
         <v>284</v>
       </c>
       <c r="B14" s="53" t="s">
@@ -5377,50 +5862,105 @@
       <c r="C14" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="83" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="53" t="s">
         <v>277</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="83"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="53" t="s">
         <v>289</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="53" t="s">
         <v>288</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="83"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76"/>
+      <c r="B23" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
